--- a/output/analysis/dnn.xlsx
+++ b/output/analysis/dnn.xlsx
@@ -13,8 +13,8 @@
     <sheet name="c" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="td" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="w" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="wsamt" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="wsexp" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="wsexp" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="wsamt" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="wsmerge" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="w+ws" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="42">
   <si>
     <t xml:space="preserve">Cnn, 2 dropouts, learned w emb</t>
   </si>
@@ -1008,34 +1008,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">cancel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">monthly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unlimited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talktalk</t>
+    <t xml:space="preserve">cnn+lstm_base</t>
   </si>
   <si>
     <t xml:space="preserve">avg_micro</t>
@@ -1046,13 +1019,17 @@
   <si>
     <t xml:space="preserve">avg_macro</t>
   </si>
+  <si>
+    <t xml:space="preserve">base cnn + lstm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1392,7 +1369,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1434,6 +1411,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1537,7 +1522,7 @@
   <dimension ref="A1:W252"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
+      <selection pane="topLeft" activeCell="A166" activeCellId="1" sqref="T46:V46 A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5203,7 +5188,7 @@
   <dimension ref="A1:W82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="T46:V46 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8213,10 +8198,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L23" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S40" activeCellId="1" sqref="T46:V46 S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8774,53 +8759,53 @@
         <v>609</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="8" t="n">
         <v>0.913891552610932</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="8" t="n">
         <v>0.905993431855501</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="8" t="n">
         <v>0.909925353701936</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="8" t="n">
         <v>0.894788758547011</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="8" t="n">
         <v>0.891050903119869</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="8" t="n">
         <v>0.892915919070392</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="8" t="n">
         <v>0.908929450452196</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="8" t="n">
         <v>0.908522167487685</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="8" t="n">
         <v>0.908725763334774</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="S13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="8" t="n">
         <v>0.918889320856171</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13" s="8" t="n">
         <v>0.918522167487685</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="8" t="n">
         <v>0.918705707489455</v>
       </c>
     </row>
@@ -9424,86 +9409,486 @@
         <v>0.896726732331</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1520</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>1520</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>37</v>
+      <c r="A40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="B42" s="7" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="D42" s="7" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <f aca="false">B42*C42+D42</f>
-        <v>582</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>43</v>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="M42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" s="7" t="n">
+        <v>0.896332675800587</v>
+      </c>
+      <c r="O42" s="7" t="n">
+        <v>0.896530377668309</v>
+      </c>
+      <c r="P42" s="7" t="n">
+        <v>0.896431515833998</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42" s="7" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="U42" s="7" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="V42" s="7" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>25</v>
+        <v>0.783</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>12</v>
+        <v>0.801</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <f aca="false">B43*C43+D43</f>
-        <v>325</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <f aca="false">B44*C44+D44</f>
-        <v>450</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>45</v>
+        <v>0.792</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -9522,10 +9907,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O30" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V43" activeCellId="1" sqref="T46:V46 V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10083,59 +10468,59 @@
         <v>6196</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="8" t="n">
         <v>0.933656178260671</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="8" t="n">
         <v>0.929215622982569</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="8" t="n">
         <v>0.93143060811272</v>
       </c>
-      <c r="E13" s="0"/>
-      <c r="G13" s="0" t="s">
+      <c r="E13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="8" t="n">
         <v>0.933193826787294</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="8" t="n">
         <v>0.937467721110394</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="8" t="n">
         <v>0.93532589167265</v>
       </c>
-      <c r="K13" s="0"/>
-      <c r="M13" s="0" t="s">
+      <c r="K13" s="8"/>
+      <c r="M13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="8" t="n">
         <v>0.942211107586457</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="8" t="n">
         <v>0.939215622982569</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="8" t="n">
         <v>0.940710980677166</v>
       </c>
-      <c r="Q13" s="0"/>
-      <c r="S13" s="0" t="s">
+      <c r="Q13" s="8"/>
+      <c r="S13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="8" t="n">
         <v>0.939560645430024</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13" s="8" t="n">
         <v>0.940963524854745</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="8" t="n">
         <v>0.940261561865228</v>
       </c>
-      <c r="W13" s="0"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
@@ -10737,149 +11122,478 @@
         <v>0.942674723383451</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>1069</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>17518</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>17518</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>37</v>
+      <c r="B39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>41</v>
+      <c r="A40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" s="12" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="C40" s="12" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="D40" s="12" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="12" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="O40" s="12" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="P40" s="12" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="S40" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="12" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="U40" s="12" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="V40" s="12" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="W40" s="12" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>60</v>
+      <c r="A41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C41" s="12" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="D41" s="12" t="n">
+        <v>0.965</v>
       </c>
       <c r="E41" s="0" t="n">
-        <f aca="false">B41*C41+D41</f>
-        <v>582</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>43</v>
+        <v>5835</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="12" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="O41" s="12" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="P41" s="12" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>5835</v>
+      </c>
+      <c r="S41" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" s="12" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U41" s="12" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="V41" s="12" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="W41" s="12" t="n">
+        <v>5835</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>25</v>
+        <v>0.933</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>18</v>
+        <v>0.933</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <f aca="false">B42*C42+D42</f>
-        <v>475</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <f aca="false">B43*C43+D43</f>
-        <v>450</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>31.49</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <f aca="false">B44*C44+D44</f>
-        <v>626.82</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>18.99</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <f aca="false">B50*C50+B51*C51</f>
-        <v>518.7</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>31.45</v>
+        <v>0.933</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="C43" s="8" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="D43" s="8" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="8" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="O43" s="8" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="P43" s="8" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T43" s="8" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="U43" s="8" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="V43" s="8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -10898,10 +11612,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="1" sqref="T46:V46 A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10914,17 +11628,17 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="13" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -11166,69 +11880,69 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.79</v>
+        <v>0.790914361090169</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.79</v>
+        <v>0.791672880934626</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.79</v>
+        <v>0.791293439236525</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.8</v>
+        <v>0.802769917568132</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.8</v>
+        <v>0.802593421161654</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.8</v>
+        <v>0.802681659662734</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.81</v>
+        <v>0.810792552967652</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.81</v>
+        <v>0.806663352390422</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.81</v>
+        <v>0.808722681964283</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>0.81</v>
+        <v>0.812844063363532</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>0.81</v>
+        <v>0.806252382136051</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>0.81</v>
+        <v>0.809534804691366</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.72</v>
@@ -11240,10 +11954,10 @@
         <v>0.72</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.76</v>
@@ -11255,10 +11969,10 @@
         <v>0.73</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>0.77</v>
@@ -11270,10 +11984,10 @@
         <v>0.73</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>0.77</v>
@@ -11285,7 +11999,7 @@
         <v>0.73</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11540,69 +12254,69 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.79</v>
+        <v>0.790019540989341</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.79</v>
+        <v>0.786744532803181</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.79</v>
+        <v>0.788378635728389</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.79</v>
+        <v>0.793984571071195</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.79</v>
+        <v>0.793175944333996</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.79</v>
+        <v>0.79358005171297</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.81</v>
+        <v>0.809500979606477</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.81</v>
+        <v>0.809234592445328</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.81</v>
+        <v>0.809367764106906</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.802823334281982</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.801600397614314</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>0.8</v>
+        <v>0.802211399869872</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.73</v>
@@ -11614,10 +12328,10 @@
         <v>0.72</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.72</v>
@@ -11629,10 +12343,10 @@
         <v>0.73</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>0.77</v>
@@ -11644,10 +12358,10 @@
         <v>0.75</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>0.75</v>
@@ -11659,7 +12373,663 @@
         <v>0.74</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1472</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2332</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>2332</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>8265</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>8265</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>462</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>462</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>0.682</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>818</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>818</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2744</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>2744</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="W44" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="7" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" s="7" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="O45" s="7" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="P45" s="7" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T45" s="7" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="U45" s="7" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="V45" s="7" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1472</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>1472</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>1472</v>
       </c>
     </row>
   </sheetData>
@@ -11678,10 +13048,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="1" sqref="T46:V46 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11694,17 +13064,17 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="13" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -11763,31 +13133,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
@@ -11796,28 +13166,28 @@
         <v>0.45</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11825,61 +13195,61 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>820</v>
+        <v>586</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.68</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>820</v>
+        <v>586</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.68</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>820</v>
+        <v>586</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.69</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>820</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11890,13 +13260,13 @@
         <v>0.94</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>4031</v>
+        <v>4270</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
@@ -11911,7 +13281,7 @@
         <v>0.95</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>4031</v>
+        <v>4270</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>2</v>
@@ -11920,13 +13290,13 @@
         <v>0.94</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0.95</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>4031</v>
+        <v>4270</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>2</v>
@@ -11941,7 +13311,7 @@
         <v>0.95</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>4031</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11958,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>3</v>
@@ -11973,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>3</v>
@@ -11988,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>3</v>
@@ -12003,92 +13373,92 @@
         <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.89</v>
+        <v>0.897151574949641</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.89</v>
+        <v>0.896448938321537</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.89</v>
+        <v>0.896800119007888</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.916916012373658</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.914653185035389</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.915783200890133</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.912453454924085</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.909589484327603</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.911019218765724</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.914586442701267</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.918192113245703</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.916385731211103</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.45</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.45</v>
@@ -12097,37 +13467,37 @@
         <v>0.47</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.56</v>
+        <v>0.53</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12199,61 +13569,61 @@
         <v>0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.15</v>
+        <v>0.67</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0.08</v>
-      </c>
       <c r="P12" s="0" t="n">
-        <v>0.14</v>
+        <v>0.51</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>0.33</v>
+        <v>0.56</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>0.13</v>
+        <v>0.45</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12261,61 +13631,61 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.77</v>
+        <v>0.56</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.83</v>
+        <v>0.69</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.86</v>
+        <v>0.69</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>253</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12326,58 +13696,58 @@
         <v>0.93</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1352</v>
+        <v>1427</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0.95</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1352</v>
+        <v>1427</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0.95</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>1352</v>
+        <v>1427</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>0.95</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>1352</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12385,16 +13755,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>3</v>
@@ -12409,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>3</v>
@@ -12424,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>3</v>
@@ -12439,131 +13809,796 @@
         <v>0</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.89</v>
+        <v>0.898917772263145</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.89</v>
+        <v>0.897865372953305</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.89</v>
+        <v>0.898391264406228</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.910550256217425</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908805336567617</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.909676959627955</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.92</v>
+        <v>0.909387730085397</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.92</v>
+        <v>0.908259551243178</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.92</v>
+        <v>0.908823290544791</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913917160098049</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913414190418435</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.913665606037491</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T17" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V17" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="U17" s="0" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>0.48</v>
-      </c>
       <c r="W17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.567</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.558</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>586</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>586</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.691</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>4270</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>4270</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.903</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.683</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1427</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>1427</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="7" t="n">
+        <v>0.903085709396077</v>
+      </c>
+      <c r="C46" s="7" t="n">
+        <v>0.900093996361431</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>0.901587371055436</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="7" t="n">
+        <v>0.906421011848014</v>
+      </c>
+      <c r="O46" s="7" t="n">
+        <v>0.906399636143117</v>
+      </c>
+      <c r="P46" s="7" t="n">
+        <v>0.906410323869541</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T46" s="7" t="n">
+        <v>0.909998941601534</v>
+      </c>
+      <c r="U46" s="7" t="n">
+        <v>0.909359611885992</v>
+      </c>
+      <c r="V46" s="7" t="n">
+        <v>0.909679164412281</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.687</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -12582,10 +14617,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="1" sqref="T46:V46 A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12598,17 +14633,17 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="13" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12667,31 +14702,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="C3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>0.11</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0.26</v>
-      </c>
       <c r="K3" s="0" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
@@ -12700,28 +14735,28 @@
         <v>0.45</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12729,61 +14764,61 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>586</v>
+        <v>820</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.68</v>
+        <v>0.81</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>586</v>
+        <v>820</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.68</v>
+        <v>0.81</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>586</v>
+        <v>820</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>586</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12794,13 +14829,13 @@
         <v>0.94</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>4270</v>
+        <v>4031</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
@@ -12815,7 +14850,7 @@
         <v>0.95</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>4270</v>
+        <v>4031</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>2</v>
@@ -12824,13 +14859,13 @@
         <v>0.94</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="P5" s="0" t="n">
         <v>0.95</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>4270</v>
+        <v>4031</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>2</v>
@@ -12845,7 +14880,7 @@
         <v>0.95</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>4270</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12862,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>3</v>
@@ -12877,7 +14912,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>3</v>
@@ -12892,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>3</v>
@@ -12907,92 +14942,92 @@
         <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.89</v>
+        <v>0.891078079918334</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.89</v>
+        <v>0.889146612740142</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.89</v>
+        <v>0.890111298549855</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.923659403087675</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.921073811931244</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.922364795518009</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.922555447352886</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.921923154701719</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.922239192651419</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.921154772610838</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.924091001011122</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>0.92</v>
+        <v>0.922620550689326</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.45</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.45</v>
@@ -13001,37 +15036,37 @@
         <v>0.47</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.53</v>
+        <v>0.56</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13103,61 +15138,61 @@
         <v>0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0.53</v>
-      </c>
       <c r="O12" s="0" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.51</v>
+        <v>0.14</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>0.56</v>
+        <v>0.33</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13165,61 +15200,61 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.56</v>
+        <v>0.77</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.69</v>
+        <v>0.83</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.69</v>
+        <v>0.86</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>190</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13230,58 +15265,58 @@
         <v>0.93</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1427</v>
+        <v>1352</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0.95</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1427</v>
+        <v>1352</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0.95</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>1427</v>
+        <v>1352</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>0.95</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>1427</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13289,16 +15324,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>3</v>
@@ -13313,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>3</v>
@@ -13328,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>3</v>
@@ -13343,131 +15378,796 @@
         <v>0</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>0.889204077044893</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>0.890848999393572</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>0.890025778194273</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>0.911544302777612</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>0.915803517283202</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>0.913668946304288</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="8" t="n">
+        <v>0.911326971733518</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <v>0.915852031534263</v>
+      </c>
+      <c r="P16" s="8" t="n">
+        <v>0.913583898415442</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="8" t="n">
+        <v>0.913692229887806</v>
+      </c>
+      <c r="U16" s="8" t="n">
+        <v>0.911904184354154</v>
+      </c>
+      <c r="V16" s="8" t="n">
+        <v>0.912797331487459</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="C17" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>0.54</v>
-      </c>
       <c r="U17" s="0" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>820</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>820</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.934</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>4031</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.934</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>4031</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.693</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.939</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1352</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>1352</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0.943</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.882372056719807</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.882604608853851</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.882488317466373</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.914894930234013</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.914550636749545</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0.914722751094531</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>0.568</v>
+      </c>
+      <c r="O47" s="7" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="P47" s="7" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="7" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="U47" s="7" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="V47" s="7" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -13486,10 +16186,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="1" sqref="T46:V46 F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13502,17 +16202,17 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="13" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13571,13 +16271,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.27</v>
+        <v>0.333</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.09</v>
+        <v>0.103</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.13</v>
+        <v>0.157</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>68</v>
@@ -13601,13 +16301,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.59</v>
+        <v>0.561</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.32</v>
+        <v>0.338</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>68</v>
@@ -13616,13 +16316,13 @@
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.73</v>
+        <v>0.682</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>0.24</v>
+        <v>0.221</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.36</v>
+        <v>0.333</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>68</v>
@@ -13633,13 +16333,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.7</v>
+        <v>0.707</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.72</v>
+        <v>0.727</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>698</v>
@@ -13663,13 +16363,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.805</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>698</v>
@@ -13678,13 +16378,13 @@
         <v>1</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0.8</v>
+        <v>0.804</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0.76</v>
+        <v>0.768</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>698</v>
@@ -13695,13 +16395,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.95</v>
+        <v>0.946</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4161</v>
@@ -13740,10 +16440,10 @@
         <v>2</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
       <c r="V5" s="0" t="n">
         <v>0.96</v>
@@ -13816,84 +16516,84 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.91</v>
+        <v>0.908</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.925820725117341</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.929575328614762</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.927694227933906</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.927</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.927</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.927</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.928</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.928</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>0.93</v>
+        <v>0.928</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.48</v>
+        <v>0.497</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.45</v>
+        <v>0.458</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.59</v>
@@ -13905,28 +16605,28 @@
         <v>0.55</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.59</v>
+        <v>0.579</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.51</v>
+        <v>0.516</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0.54</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>0.62</v>
+        <v>0.609</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>0.49</v>
@@ -13935,7 +16635,7 @@
         <v>0.52</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14007,13 +16707,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.41</v>
+        <v>0.409</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>22</v>
@@ -14037,10 +16737,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0.4</v>
@@ -14055,10 +16755,10 @@
         <v>0.5</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>0.36</v>
+        <v>0.409</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>22</v>
@@ -14069,13 +16769,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.68</v>
+        <v>0.714</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.72</v>
+        <v>0.724</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.7</v>
+        <v>0.719</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>214</v>
@@ -14099,13 +16799,13 @@
         <v>1</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.75</v>
+        <v>0.763</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.73</v>
+        <v>0.706</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.74</v>
+        <v>0.733</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>214</v>
@@ -14114,13 +16814,13 @@
         <v>1</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0.67</v>
+        <v>0.699</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>0.79</v>
+        <v>0.804</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>0.73</v>
+        <v>0.748</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>214</v>
@@ -14134,10 +16834,10 @@
         <v>0.95</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.95</v>
+        <v>0.957</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.95</v>
+        <v>0.953</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1404</v>
@@ -14161,13 +16861,13 @@
         <v>2</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.95</v>
+        <v>0.946</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.96</v>
+        <v>0.969</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>1404</v>
@@ -14176,13 +16876,13 @@
         <v>2</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.96</v>
+        <v>0.962</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0.94</v>
+        <v>0.949</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>0.95</v>
+        <v>0.955</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>1404</v>
@@ -14250,86 +16950,86 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>0.914102490671663</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>0.919442086112796</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>0.91676451348459</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.92</v>
+        <v>0.921</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.918</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.918</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>0.91</v>
+        <v>0.918</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.56</v>
+        <v>0.541</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.52</v>
+        <v>0.522</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.53</v>
+        <v>0.531</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.54</v>
@@ -14341,37 +17041,702 @@
         <v>0.54</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.56</v>
+        <v>0.562</v>
       </c>
       <c r="O17" s="0" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>698</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>698</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.818</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>4161</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>4161</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0.562</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="O42" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="P17" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="W17" s="0" t="s">
-        <v>48</v>
+      <c r="P42" s="0" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.693</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1404</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>1404</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.906723228258577</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.903927228623408</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.905323069654925</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.923816851236981</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.923077622801698</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0.923447089079464</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>0.913620510541874</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>0.912869617950273</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>0.913244909895477</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="7" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="C47" s="7" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>0.565</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="O47" s="7" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="P47" s="7" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="7" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="U47" s="7" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="V47" s="7" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -14390,10 +17755,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T46" activeCellId="0" sqref="T46:V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14406,17 +17771,17 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="13" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14720,69 +18085,69 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.8</v>
+        <v>0.798001220794303</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.8</v>
+        <v>0.794973510882016</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.8</v>
+        <v>0.796484488508365</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.8</v>
+        <v>0.803804052857054</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.8</v>
+        <v>0.802028207331042</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.8</v>
+        <v>0.802915148164799</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.81</v>
+        <v>0.810565061849144</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.81</v>
+        <v>0.805534793814433</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.81</v>
+        <v>0.808042099232456</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>0.81</v>
+        <v>0.806758529495856</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>0.81</v>
+        <v>0.808566723940435</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>0.81</v>
+        <v>0.807661614672075</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.57</v>
@@ -14794,10 +18159,10 @@
         <v>0.56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.56</v>
@@ -14809,10 +18174,10 @@
         <v>0.54</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>0.56</v>
@@ -14824,10 +18189,10 @@
         <v>0.56</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>0.58</v>
@@ -14839,7 +18204,7 @@
         <v>0.54</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15154,71 +18519,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="W16" s="0" t="s">
-        <v>48</v>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>0.803356816290095</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>0.805643117887052</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>0.80449834273332</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>0.813561545481036</v>
+      </c>
+      <c r="I16" s="8" t="n">
+        <v>0.816873523727722</v>
+      </c>
+      <c r="J16" s="8" t="n">
+        <v>0.815214170716999</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="8" t="n">
+        <v>0.818940338378556</v>
+      </c>
+      <c r="O16" s="8" t="n">
+        <v>0.817693794288168</v>
+      </c>
+      <c r="P16" s="8" t="n">
+        <v>0.81831659161756</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" s="8" t="n">
+        <v>0.815591535463834</v>
+      </c>
+      <c r="U16" s="8" t="n">
+        <v>0.814773459308568</v>
+      </c>
+      <c r="V16" s="8" t="n">
+        <v>0.815182292141179</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.73</v>
@@ -15230,10 +18595,10 @@
         <v>0.63</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.84</v>
@@ -15245,10 +18610,10 @@
         <v>0.63</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>0.6</v>
@@ -15260,10 +18625,10 @@
         <v>0.55</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>0.85</v>
@@ -15275,7 +18640,672 @@
         <v>0.63</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1533</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>1533</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2832</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>2832</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>9581</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>9581</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>9581</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0.561</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0.559</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" s="12" t="n">
+        <v>0.685</v>
+      </c>
+      <c r="C42" s="12" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="D42" s="12" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>479</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>479</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="C43" s="12" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="D43" s="12" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>938</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>938</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="12" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="C44" s="12" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="D44" s="12" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>3230</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>3230</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="C45" s="12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D45" s="12" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.797674675128129</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.791906806957269</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.794780276557672</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.795412367153395</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.797564955980245</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0.796487207171145</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>0.795137013490837</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>0.792207429675757</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>0.793669518180968</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
